--- a/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>768796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>738996</v>
+        <v>741074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>793854</v>
+        <v>793649</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7457848160671343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7168766333873441</v>
+        <v>0.718892600543364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7700927699846554</v>
+        <v>0.7698936815884425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>951</v>
@@ -765,19 +765,19 @@
         <v>972505</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>941889</v>
+        <v>939844</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1005623</v>
+        <v>1002333</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7400435704771917</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.716746403946746</v>
+        <v>0.7151899744209034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7652453356850536</v>
+        <v>0.7627418435955098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1723</v>
@@ -786,19 +786,19 @@
         <v>1741301</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1696616</v>
+        <v>1699301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1782540</v>
+        <v>1783292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7425674333257808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.723511758124576</v>
+        <v>0.7246567911514896</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7601536392371787</v>
+        <v>0.760474535803446</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>223622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200858</v>
+        <v>200691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250703</v>
+        <v>250533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2169290986712436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1948456156041909</v>
+        <v>0.194684432033559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2431989685185346</v>
+        <v>0.2430339557276137</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>272</v>
@@ -836,19 +836,19 @@
         <v>275216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246543</v>
+        <v>250704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304655</v>
+        <v>308170</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2094300161737018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1876108690067767</v>
+        <v>0.1907775327856422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2318326286027306</v>
+        <v>0.2345073784625984</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>498</v>
@@ -857,19 +857,19 @@
         <v>498838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>461583</v>
+        <v>461338</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>544065</v>
+        <v>537660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2127266275827671</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1968393020593113</v>
+        <v>0.1967349651965212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.232013538351854</v>
+        <v>0.2292819546420886</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>38437</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28368</v>
+        <v>27803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52153</v>
+        <v>52092</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03728608526162206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02751859783725677</v>
+        <v>0.02697123536314943</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05059187963715066</v>
+        <v>0.05053285485237834</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -907,19 +907,19 @@
         <v>66398</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52262</v>
+        <v>50770</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83615</v>
+        <v>82933</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05052641334910642</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03976964813272902</v>
+        <v>0.03863408607776338</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06362845689794827</v>
+        <v>0.06310929602722523</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>106</v>
@@ -928,19 +928,19 @@
         <v>104834</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85815</v>
+        <v>85725</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125650</v>
+        <v>126101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04470593909145207</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03659535497701687</v>
+        <v>0.03655694325239324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05358257779440278</v>
+        <v>0.05377516540399743</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>1346064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1310584</v>
+        <v>1309731</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1378983</v>
+        <v>1377422</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7966238130493775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7756260939747245</v>
+        <v>0.7751212414000714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8161057134704881</v>
+        <v>0.815182071398398</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1157</v>
@@ -1053,19 +1053,19 @@
         <v>1177400</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1143135</v>
+        <v>1143884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1208251</v>
+        <v>1213064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.743888369189631</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7222391690177005</v>
+        <v>0.7227126198091535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7633798101455427</v>
+        <v>0.7664206388953595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2467</v>
@@ -1074,19 +1074,19 @@
         <v>2523464</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2472073</v>
+        <v>2475854</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2571156</v>
+        <v>2572057</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7711177955378903</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7554135411836969</v>
+        <v>0.7565689152814341</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7856913000797582</v>
+        <v>0.7859665335197806</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>296434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>264628</v>
+        <v>266488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>328833</v>
+        <v>333298</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1754344684872911</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1566114874763403</v>
+        <v>0.1577124561031413</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1946089778089423</v>
+        <v>0.1972516104557098</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>303</v>
@@ -1124,19 +1124,19 @@
         <v>311748</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>283223</v>
+        <v>280643</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>346106</v>
+        <v>344610</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1969644849471704</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1789420738506835</v>
+        <v>0.1773117549882426</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2186715673031676</v>
+        <v>0.2177263341681253</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>592</v>
@@ -1145,19 +1145,19 @@
         <v>608182</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>564275</v>
+        <v>564870</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>655846</v>
+        <v>652631</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1858476732819408</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1724305836938197</v>
+        <v>0.1726124058764179</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2004126989630607</v>
+        <v>0.1994304364579451</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>47213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35816</v>
+        <v>35069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62749</v>
+        <v>63549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02794171846333143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02119639564530346</v>
+        <v>0.02075438349142423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03713589164253325</v>
+        <v>0.03760966204973294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -1195,19 +1195,19 @@
         <v>93616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76076</v>
+        <v>75845</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116012</v>
+        <v>112952</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05914714586319857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04806554757380078</v>
+        <v>0.04791944032426496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07329712482147348</v>
+        <v>0.07136395478825718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -1216,19 +1216,19 @@
         <v>140829</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119107</v>
+        <v>118033</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163651</v>
+        <v>165929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.043034531180169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0363965035868398</v>
+        <v>0.03606848268618986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05000844706666035</v>
+        <v>0.05070445267171166</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>444846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>423095</v>
+        <v>426505</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>461676</v>
+        <v>463043</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8132091102354039</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7734473949362607</v>
+        <v>0.7796803063093016</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8439757168615306</v>
+        <v>0.8464746754237538</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>342</v>
@@ -1341,19 +1341,19 @@
         <v>356854</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>337593</v>
+        <v>337776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>375317</v>
+        <v>375729</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.749044398454159</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7086146275638655</v>
+        <v>0.709000416183906</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7878000861198284</v>
+        <v>0.7886643103664849</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>766</v>
@@ -1362,19 +1362,19 @@
         <v>801699</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>776900</v>
+        <v>775235</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>832735</v>
+        <v>827279</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7833403165116877</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7591083222988354</v>
+        <v>0.7574821169480852</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8136651418916039</v>
+        <v>0.8083339727300727</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>93150</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76941</v>
+        <v>75256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113745</v>
+        <v>111815</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1702853894929577</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1406526518027584</v>
+        <v>0.1375728340259421</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2079329296405551</v>
+        <v>0.2044047954846275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1412,19 +1412,19 @@
         <v>90017</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73034</v>
+        <v>73920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106662</v>
+        <v>109025</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1889480584618886</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1533000552975094</v>
+        <v>0.1551601816217521</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2238870488153149</v>
+        <v>0.2288463797377382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -1433,19 +1433,19 @@
         <v>183167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156644</v>
+        <v>158299</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205999</v>
+        <v>207636</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1789728969139749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1530565137759625</v>
+        <v>0.1546741618367685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2012812476144227</v>
+        <v>0.2028813709977071</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>9029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4274</v>
+        <v>3770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17182</v>
+        <v>17314</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01650550027163845</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007812936947043055</v>
+        <v>0.006892318524825802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03140962067581663</v>
+        <v>0.03165053298327929</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1483,19 +1483,19 @@
         <v>29541</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20827</v>
+        <v>19910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43217</v>
+        <v>42846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06200754308395239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04371720088037463</v>
+        <v>0.0417925899343284</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0907137187669336</v>
+        <v>0.08993483388723224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -1504,19 +1504,19 @@
         <v>38570</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27286</v>
+        <v>27512</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52858</v>
+        <v>50573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03768678657433739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.026661574774156</v>
+        <v>0.02688221258582235</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05164781093310853</v>
+        <v>0.04941492755390836</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2559705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2514070</v>
+        <v>2506863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2609271</v>
+        <v>2602396</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7833617302240591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7693957516655158</v>
+        <v>0.7671901261098136</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7985306091123019</v>
+        <v>0.7964267315211343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2450</v>
@@ -1629,19 +1629,19 @@
         <v>2506759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2456061</v>
+        <v>2453742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2558367</v>
+        <v>2554029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7431187572802292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.728089607525506</v>
+        <v>0.7274021521177554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7584178043940208</v>
+        <v>0.7571317248664147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4956</v>
@@ -1650,19 +1650,19 @@
         <v>5066464</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4994383</v>
+        <v>4994655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5130847</v>
+        <v>5131844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7629199643874169</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7520658546697512</v>
+        <v>0.7521068621547162</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7726149137814518</v>
+        <v>0.7727651195853745</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>613206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>569060</v>
+        <v>571914</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>659050</v>
+        <v>661885</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1876631325944222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1741527203834549</v>
+        <v>0.1750261023349082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2016930547678192</v>
+        <v>0.2025607336670403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>658</v>
@@ -1700,19 +1700,19 @@
         <v>676981</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>633402</v>
+        <v>631662</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>723322</v>
+        <v>725584</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2006884591962383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1877694485393179</v>
+        <v>0.1872537765299003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2144259624322924</v>
+        <v>0.2150966628819498</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1263</v>
@@ -1721,19 +1721,19 @@
         <v>1290188</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1227478</v>
+        <v>1226796</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1359169</v>
+        <v>1351761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1942794597905206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1848365022971047</v>
+        <v>0.1847337874660337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2046668626512346</v>
+        <v>0.2035512739860844</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>94679</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75925</v>
+        <v>76956</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>114306</v>
+        <v>114938</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02897513718151878</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02323591932432007</v>
+        <v>0.02355139602949683</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03498180310105858</v>
+        <v>0.03517507562446649</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>183</v>
@@ -1771,19 +1771,19 @@
         <v>189555</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>163077</v>
+        <v>163245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217805</v>
+        <v>216229</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05619278352353238</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04834361589246289</v>
+        <v>0.04839332266205238</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06456741860613023</v>
+        <v>0.06410023869539408</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>277</v>
@@ -1792,19 +1792,19 @@
         <v>284234</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>252597</v>
+        <v>252500</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>319771</v>
+        <v>319638</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04280057582206256</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03803663861908504</v>
+        <v>0.03802207802195961</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04815187458432982</v>
+        <v>0.04813181829907569</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>840107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>814047</v>
+        <v>816190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>859855</v>
+        <v>861813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8639276237421079</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.837128845508163</v>
+        <v>0.8393327621126897</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8842358692306875</v>
+        <v>0.8862495492614388</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1052</v>
@@ -2156,19 +2156,19 @@
         <v>1128275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1101770</v>
+        <v>1102046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1154000</v>
+        <v>1154364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8445913066668788</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8247506097350892</v>
+        <v>0.8249568653979151</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8638483228796215</v>
+        <v>0.8641207236624883</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1837</v>
@@ -2177,19 +2177,19 @@
         <v>1968382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1931834</v>
+        <v>1931347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2001367</v>
+        <v>2001220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8527371597204466</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8369039942726876</v>
+        <v>0.8366929278115742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8670270969920231</v>
+        <v>0.8669633325289129</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>108778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90299</v>
+        <v>88646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134727</v>
+        <v>131225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1118624516053142</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09285991857319417</v>
+        <v>0.09115919811220215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1385476682220348</v>
+        <v>0.134945502389493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -2227,19 +2227,19 @@
         <v>170857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147959</v>
+        <v>146466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197622</v>
+        <v>195333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1278979638661373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1107571321008781</v>
+        <v>0.1096398742189271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1479336173006343</v>
+        <v>0.1462203509312397</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>258</v>
@@ -2248,19 +2248,19 @@
         <v>279635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>249851</v>
+        <v>247835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>312751</v>
+        <v>311720</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1211426481559555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1082395808571239</v>
+        <v>0.1073662278966962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1354889862375481</v>
+        <v>0.1350426412161742</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>23542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15993</v>
+        <v>15711</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35371</v>
+        <v>34461</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.024209924652578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01644634832745226</v>
+        <v>0.01615684342589402</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03637377822204278</v>
+        <v>0.03543843417622845</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -2298,19 +2298,19 @@
         <v>36751</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25756</v>
+        <v>25560</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50914</v>
+        <v>50135</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02751072946698399</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01928047203913567</v>
+        <v>0.01913368266139308</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03811256872465469</v>
+        <v>0.03752914740091508</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -2319,19 +2319,19 @@
         <v>60294</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45946</v>
+        <v>46173</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76623</v>
+        <v>78414</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02612019212359787</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01990480393645475</v>
+        <v>0.02000289192607984</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0331944131516352</v>
+        <v>0.03397030481706944</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1640775</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1610893</v>
+        <v>1605910</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1675950</v>
+        <v>1674212</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8386325976475063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.823359323975198</v>
+        <v>0.8208125883191345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8566112651003113</v>
+        <v>0.8557233594666417</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1339</v>
@@ -2444,19 +2444,19 @@
         <v>1436911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1402833</v>
+        <v>1402199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1469282</v>
+        <v>1467526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8216277245356776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8021420460042256</v>
+        <v>0.8017793504825258</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8401376066080803</v>
+        <v>0.8391335901766971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2894</v>
@@ -2465,19 +2465,19 @@
         <v>3077686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3031591</v>
+        <v>3031757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3127590</v>
+        <v>3126839</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8306065958245598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8181665354671599</v>
+        <v>0.8182113324423708</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.844074796176462</v>
+        <v>0.8438721248355072</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>266813</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>233784</v>
+        <v>234407</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>297719</v>
+        <v>297667</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1363734960115077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.119491436987114</v>
+        <v>0.1198102954135056</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1521699385776921</v>
+        <v>0.1521434442549028</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>223</v>
@@ -2515,19 +2515,19 @@
         <v>238376</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>206320</v>
+        <v>210269</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>268383</v>
+        <v>270120</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1363039352026674</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1179740474909583</v>
+        <v>0.1202320489616791</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1534619467098334</v>
+        <v>0.1544550598592885</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>473</v>
@@ -2536,19 +2536,19 @@
         <v>505189</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>461898</v>
+        <v>462728</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>547692</v>
+        <v>550353</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.136340664529915</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1246570596004355</v>
+        <v>0.1248810700121181</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1478113680870881</v>
+        <v>0.1485294817498835</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>48900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36812</v>
+        <v>35991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64154</v>
+        <v>66417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02499390634098594</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01881559842080243</v>
+        <v>0.01839588905755497</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03279024965244576</v>
+        <v>0.03394705635926829</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -2586,19 +2586,19 @@
         <v>73572</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56477</v>
+        <v>58140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92426</v>
+        <v>95246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04206834026165504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03229365676460881</v>
+        <v>0.0332446403655111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05284955926573175</v>
+        <v>0.05446198268940818</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -2607,19 +2607,19 @@
         <v>122472</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99925</v>
+        <v>100254</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146133</v>
+        <v>144931</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03305273964552533</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02696788439231515</v>
+        <v>0.02705650072106344</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03943831267800413</v>
+        <v>0.03911397598271641</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>409536</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>391895</v>
+        <v>390509</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>424622</v>
+        <v>424583</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8511050961910053</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8144434349406848</v>
+        <v>0.811563930694822</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8824572806705586</v>
+        <v>0.8823771872853422</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>347</v>
@@ -2732,19 +2732,19 @@
         <v>385116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>366654</v>
+        <v>367819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>400989</v>
+        <v>401219</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8414664391370268</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8011275847855183</v>
+        <v>0.8036738407717156</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8761497842284292</v>
+        <v>0.8766516354572186</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>722</v>
@@ -2753,19 +2753,19 @@
         <v>794651</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>768071</v>
+        <v>771424</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>818040</v>
+        <v>817280</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8464064487123351</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8180952760910375</v>
+        <v>0.8216659477903312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8713186698790651</v>
+        <v>0.8705089058902059</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>57886</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44417</v>
+        <v>44181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75598</v>
+        <v>77177</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1202990161851803</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09230890672968556</v>
+        <v>0.09181707697209004</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1571101085478893</v>
+        <v>0.1603911363563969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -2803,19 +2803,19 @@
         <v>60125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45215</v>
+        <v>44915</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78354</v>
+        <v>77342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1313723931296785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09879335521319026</v>
+        <v>0.09813881059888492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1712012989611889</v>
+        <v>0.168989172464838</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -2824,19 +2824,19 @@
         <v>118011</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95533</v>
+        <v>97565</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141413</v>
+        <v>139847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1256970601625989</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1017552859656963</v>
+        <v>0.1039196916091477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1506232086112701</v>
+        <v>0.1489555112419476</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>13760</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7601</v>
+        <v>7657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23243</v>
+        <v>23362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02859588762381446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01579636522778865</v>
+        <v>0.01591313511568037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04830480219657867</v>
+        <v>0.04855047001592339</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -2874,19 +2874,19 @@
         <v>12431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6528</v>
+        <v>6271</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20366</v>
+        <v>20741</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02716116773329464</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01426292260479697</v>
+        <v>0.0137011975254645</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04449938753349216</v>
+        <v>0.04531859073244162</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -2895,19 +2895,19 @@
         <v>26191</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17687</v>
+        <v>17201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38371</v>
+        <v>38181</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02789649112506607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01883908811286799</v>
+        <v>0.01832099381346581</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04087018324686908</v>
+        <v>0.04066746968204183</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>2890417</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2846749</v>
+        <v>2843182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2935520</v>
+        <v>2934572</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8476056862571187</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8348003096728358</v>
+        <v>0.8337541798134235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8608320930475057</v>
+        <v>0.8605542137160107</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2738</v>
@@ -3020,19 +3020,19 @@
         <v>2950301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2899173</v>
+        <v>2902893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2992931</v>
+        <v>2995696</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8328506601615411</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8184175056171242</v>
+        <v>0.8194677510982429</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8448847704165505</v>
+        <v>0.8456654293738279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5453</v>
@@ -3041,19 +3041,19 @@
         <v>5840719</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5776253</v>
+        <v>5782526</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5901104</v>
+        <v>5899179</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.840087767744409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8308154236280619</v>
+        <v>0.8317176880572927</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8487731243391723</v>
+        <v>0.848496362157351</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>433477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>392448</v>
+        <v>394966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475258</v>
+        <v>477855</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1271157111322488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1150841110818869</v>
+        <v>0.1158225335566243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1393678869222521</v>
+        <v>0.1401294105842087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>435</v>
@@ -3091,19 +3091,19 @@
         <v>469358</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>432172</v>
+        <v>425722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>516663</v>
+        <v>510761</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1324968070314827</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1219992905565407</v>
+        <v>0.1201786514034366</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1458505587441332</v>
+        <v>0.1441845070441673</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>833</v>
@@ -3112,19 +3112,19 @@
         <v>902835</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>846589</v>
+        <v>847961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>960037</v>
+        <v>959507</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1298574643638234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1217673913095012</v>
+        <v>0.121964686147138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1380849662437178</v>
+        <v>0.1380087000244217</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>86202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68980</v>
+        <v>68888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107325</v>
+        <v>106668</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0252786026106325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02022822619878056</v>
+        <v>0.02020133296289886</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03147278065643207</v>
+        <v>0.03128002851424577</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>111</v>
@@ -3162,19 +3162,19 @@
         <v>122754</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>102251</v>
+        <v>101393</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>146258</v>
+        <v>150213</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03465253280697624</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02886468719785821</v>
+        <v>0.02862268168016886</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04128774337092532</v>
+        <v>0.04240425444044732</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>193</v>
@@ -3183,19 +3183,19 @@
         <v>208956</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>181795</v>
+        <v>179079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>239698</v>
+        <v>240603</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03005476789176768</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02614816737356952</v>
+        <v>0.02575751127368171</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03447640529263736</v>
+        <v>0.03460667339875096</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>650608</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>631878</v>
+        <v>630911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>667546</v>
+        <v>666479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8637104674459644</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8388452703765312</v>
+        <v>0.8375622378729694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8861969418462836</v>
+        <v>0.884780408769937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>761</v>
@@ -3547,19 +3547,19 @@
         <v>848804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>823919</v>
+        <v>823741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>870802</v>
+        <v>871225</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8580762069046582</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8329190376040051</v>
+        <v>0.832739603729619</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.880315089235811</v>
+        <v>0.8807418941098072</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1418</v>
@@ -3568,19 +3568,19 @@
         <v>1499412</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1468227</v>
+        <v>1467334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1528936</v>
+        <v>1529338</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8605119079764385</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8426149915530255</v>
+        <v>0.8421026930042516</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8774557995107423</v>
+        <v>0.8776865802465629</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>82049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66185</v>
+        <v>67364</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98262</v>
+        <v>100764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1089229590348573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08786326717396996</v>
+        <v>0.08942869155313632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1304468357290045</v>
+        <v>0.1337690756324698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -3618,19 +3618,19 @@
         <v>113818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94232</v>
+        <v>93987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135897</v>
+        <v>138025</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1150617485910195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09526165250263939</v>
+        <v>0.09501372847053734</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1373820356320414</v>
+        <v>0.139532547689174</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -3639,19 +3639,19 @@
         <v>195867</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>171291</v>
+        <v>169123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>224318</v>
+        <v>226123</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1124079387091797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09830397419582632</v>
+        <v>0.09705948371509321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1287357722457189</v>
+        <v>0.1297718553663365</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>20614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12817</v>
+        <v>12284</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31541</v>
+        <v>31230</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02736657351917839</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0170146125525161</v>
+        <v>0.01630717249857626</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04187199046169104</v>
+        <v>0.04145943035516712</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3689,19 +3689,19 @@
         <v>26572</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17381</v>
+        <v>16294</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39917</v>
+        <v>37530</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0268620445043223</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01757052358078191</v>
+        <v>0.01647216255522358</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0403530691432448</v>
+        <v>0.03793967245976065</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -3710,19 +3710,19 @@
         <v>47186</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33982</v>
+        <v>34893</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62770</v>
+        <v>62494</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02708015331438176</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01950246139604172</v>
+        <v>0.02002494484933975</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03602368093971121</v>
+        <v>0.03586531084299802</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>1832147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1801241</v>
+        <v>1800205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1860620</v>
+        <v>1857642</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8854100765449384</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8704740160827706</v>
+        <v>0.8699736347900541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.899169927080826</v>
+        <v>0.897730669364615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1652</v>
@@ -3835,19 +3835,19 @@
         <v>1719446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1687140</v>
+        <v>1692128</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1748827</v>
+        <v>1750549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8670140749140854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8507240919359591</v>
+        <v>0.8532393177286789</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8818290788212521</v>
+        <v>0.882697549594972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3378</v>
@@ -3856,19 +3856,19 @@
         <v>3551593</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3504739</v>
+        <v>3507777</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3588052</v>
+        <v>3592166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8764074618173783</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8648456419069612</v>
+        <v>0.8655951590577194</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8854043536772319</v>
+        <v>0.8864195513261675</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>190691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>165367</v>
+        <v>167511</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>221063</v>
+        <v>219775</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09215413577820682</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07991578917256668</v>
+        <v>0.08095186255674379</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1068315588165429</v>
+        <v>0.1062091201948296</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>193</v>
@@ -3906,19 +3906,19 @@
         <v>201475</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>177402</v>
+        <v>175850</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>229774</v>
+        <v>226681</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1015916672329928</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08945334893608696</v>
+        <v>0.08867042745285197</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1158615224811904</v>
+        <v>0.1143016693049224</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>371</v>
@@ -3927,19 +3927,19 @@
         <v>392166</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>358202</v>
+        <v>354597</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>435589</v>
+        <v>432477</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09677266437869213</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08839156074246354</v>
+        <v>0.0875020003209238</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1074879060469744</v>
+        <v>0.1067201325184854</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>46426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32102</v>
+        <v>34209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62477</v>
+        <v>62687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02243578767685481</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01551382760668937</v>
+        <v>0.01653179466727553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03019288753726929</v>
+        <v>0.03029415033694122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -3977,19 +3977,19 @@
         <v>62260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47748</v>
+        <v>48644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79939</v>
+        <v>79858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03139425785292171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02407647694108192</v>
+        <v>0.02452815933558696</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04030838357511725</v>
+        <v>0.04026743025464346</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -3998,19 +3998,19 @@
         <v>108686</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89233</v>
+        <v>89617</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130789</v>
+        <v>130610</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02681987380392964</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02201948446831924</v>
+        <v>0.02211441909864185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03227415605429688</v>
+        <v>0.03222988910981101</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>469291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>451380</v>
+        <v>452251</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>486893</v>
+        <v>485142</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8597192281404689</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8269069437492452</v>
+        <v>0.8285026801863267</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.891965720066822</v>
+        <v>0.8887580259573891</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>447</v>
@@ -4123,19 +4123,19 @@
         <v>465173</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>447748</v>
+        <v>448312</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>481267</v>
+        <v>480792</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8554490118481487</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8234050799798651</v>
+        <v>0.8244419418710587</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.885045589332778</v>
+        <v>0.8841732837026101</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>877</v>
@@ -4144,19 +4144,19 @@
         <v>934462</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>907490</v>
+        <v>909697</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>956773</v>
+        <v>958320</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8575882133346011</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8328349898201578</v>
+        <v>0.8348598993746685</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8780631674269205</v>
+        <v>0.8794832385773684</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>64240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48654</v>
+        <v>49675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81152</v>
+        <v>80657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1176850314042732</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08913145301980123</v>
+        <v>0.09100205032448531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1486667148456643</v>
+        <v>0.1477601124429085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -4194,19 +4194,19 @@
         <v>61914</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49276</v>
+        <v>48482</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78647</v>
+        <v>77437</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1138585254524074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09061727970402129</v>
+        <v>0.08915772732958777</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.144631234381702</v>
+        <v>0.1424058965632049</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -4215,19 +4215,19 @@
         <v>126154</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105724</v>
+        <v>103590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149777</v>
+        <v>148681</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1157754464371528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09702668172907754</v>
+        <v>0.09506787363889053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1374552646247325</v>
+        <v>0.1364494544692393</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>12334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5751</v>
+        <v>5869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21810</v>
+        <v>21532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02259574045525795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01053648681105098</v>
+        <v>0.01075086493973698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03995417133619006</v>
+        <v>0.03944611341177912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -4265,19 +4265,19 @@
         <v>16690</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9339</v>
+        <v>9506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27149</v>
+        <v>26116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03069246269944384</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01717408914406551</v>
+        <v>0.01748160814437142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04992627472578612</v>
+        <v>0.0480274613438979</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -4286,19 +4286,19 @@
         <v>29024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19445</v>
+        <v>19320</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41917</v>
+        <v>42593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02663634022824601</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0178449526435795</v>
+        <v>0.01773088001539645</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03846863966534432</v>
+        <v>0.03908889468999529</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>2952045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2913343</v>
+        <v>2910147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2990554</v>
+        <v>2991830</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8763941006147443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8649045026494241</v>
+        <v>0.8639554157855346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8878265182668337</v>
+        <v>0.8882054210403719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2860</v>
@@ -4411,19 +4411,19 @@
         <v>3033422</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2992803</v>
+        <v>2992617</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3077328</v>
+        <v>3072569</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8627110493111954</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.851158927946528</v>
+        <v>0.8511060181221858</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8751979297633283</v>
+        <v>0.8738444845925437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5673</v>
@@ -4432,19 +4432,19 @@
         <v>5985467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5927082</v>
+        <v>5926805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6038416</v>
+        <v>6042550</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8694057468746779</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8609251680826606</v>
+        <v>0.8608849427231761</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.877096744202437</v>
+        <v>0.8776972118242462</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>336980</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>303622</v>
+        <v>302209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>374123</v>
+        <v>376202</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1000415252861672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09013824220188929</v>
+        <v>0.0897187848788407</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1110683984608499</v>
+        <v>0.1116858013779852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>355</v>
@@ -4482,19 +4482,19 @@
         <v>377207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>338425</v>
+        <v>342043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>415578</v>
+        <v>413830</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1072782679178736</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0962487122831307</v>
+        <v>0.09727780998996899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1181912104529634</v>
+        <v>0.1176939164207437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>675</v>
@@ -4503,19 +4503,19 @@
         <v>714186</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>665069</v>
+        <v>664611</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>765449</v>
+        <v>765270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1037375515828066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09660315040384276</v>
+        <v>0.09653658405970844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1111836525615728</v>
+        <v>0.1111575479732311</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>79374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62554</v>
+        <v>62198</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>99434</v>
+        <v>98232</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02356437409908847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.018570785281308</v>
+        <v>0.01846501147929024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0295195882307463</v>
+        <v>0.02916287524815465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -4553,19 +4553,19 @@
         <v>105522</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88413</v>
+        <v>84166</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129194</v>
+        <v>126251</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03001068277093109</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02514482076589591</v>
+        <v>0.02393685590531347</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03674314488681983</v>
+        <v>0.03590594885647307</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>171</v>
@@ -4574,19 +4574,19 @@
         <v>184896</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156460</v>
+        <v>158611</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>212212</v>
+        <v>216156</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02685670154251548</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02272621194153892</v>
+        <v>0.02303866194342256</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03082435146608743</v>
+        <v>0.0313973251344202</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>510022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>492462</v>
+        <v>492932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>523666</v>
+        <v>522792</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8832402235083993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8528315769653108</v>
+        <v>0.8536445246182874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9068689164399015</v>
+        <v>0.9053557793940724</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1285</v>
@@ -4938,19 +4938,19 @@
         <v>730924</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>715397</v>
+        <v>714116</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>743566</v>
+        <v>745724</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8903597229516094</v>
+        <v>0.8903597229516096</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8714462858730062</v>
+        <v>0.8698849854779602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9057599480081334</v>
+        <v>0.9083878651772163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1901</v>
@@ -4959,19 +4959,19 @@
         <v>1240945</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1220443</v>
+        <v>1219521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1264627</v>
+        <v>1262398</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8874198019102422</v>
+        <v>0.8874198019102421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.872758933735288</v>
+        <v>0.8720995909985747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.904355418746998</v>
+        <v>0.9027614820024147</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>41041</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31040</v>
+        <v>31306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55149</v>
+        <v>53791</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07107322730686673</v>
+        <v>0.07107322730686672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05375408604117757</v>
+        <v>0.05421539815827735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09550537647872061</v>
+        <v>0.09315312375109737</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -5009,19 +5009,19 @@
         <v>66438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55148</v>
+        <v>53898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79969</v>
+        <v>80780</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08092996130363253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06717777055020795</v>
+        <v>0.06565508055931783</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09741233832715637</v>
+        <v>0.09840052922675625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>153</v>
@@ -5030,19 +5030,19 @@
         <v>107479</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90803</v>
+        <v>89238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>125745</v>
+        <v>128215</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07685972857064324</v>
+        <v>0.07685972857064323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06493459231564201</v>
+        <v>0.06381533212721954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08992244422207918</v>
+        <v>0.09168887045930973</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>26381</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17994</v>
+        <v>17908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37637</v>
+        <v>37809</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04568654918473406</v>
+        <v>0.04568654918473405</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03116106230193876</v>
+        <v>0.03101241774946807</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06517811529494108</v>
+        <v>0.06547646576626619</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -5080,19 +5080,19 @@
         <v>23569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16974</v>
+        <v>16313</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33085</v>
+        <v>33051</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02871031574475793</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02067619951507826</v>
+        <v>0.01987126689945244</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04030126283049758</v>
+        <v>0.0402598118559863</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -5101,19 +5101,19 @@
         <v>49951</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38631</v>
+        <v>38915</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63851</v>
+        <v>65332</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03572046951911468</v>
+        <v>0.03572046951911467</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02762598747437792</v>
+        <v>0.0278290471752935</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04566073196876862</v>
+        <v>0.04671995991885258</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>2041655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2004306</v>
+        <v>2007719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2067984</v>
+        <v>2069207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9157943942928011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8990414532416127</v>
+        <v>0.900572588837024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9276047021233894</v>
+        <v>0.9281531169118835</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2642</v>
@@ -5226,19 +5226,19 @@
         <v>1953723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1927678</v>
+        <v>1925701</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1980751</v>
+        <v>1978929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9000421872491615</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8880437270167559</v>
+        <v>0.887133028782346</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9124930695122717</v>
+        <v>0.9116541110109281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4474</v>
@@ -5247,19 +5247,19 @@
         <v>3995377</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3957340</v>
+        <v>3952439</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4034088</v>
+        <v>4032616</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9080233256220762</v>
+        <v>0.9080233256220764</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8993788003664536</v>
+        <v>0.8982649382536066</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9168211554350306</v>
+        <v>0.9164865465634369</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>155771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131004</v>
+        <v>130468</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>187412</v>
+        <v>186662</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06987196502269392</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05876257452092324</v>
+        <v>0.0585222812591522</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08406457511585574</v>
+        <v>0.0837282048955708</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>224</v>
@@ -5297,19 +5297,19 @@
         <v>176049</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>151363</v>
+        <v>152550</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>201867</v>
+        <v>201502</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08110250177695902</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06972980576839542</v>
+        <v>0.07027657505334731</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09299631046889313</v>
+        <v>0.09282820947817977</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>357</v>
@@ -5318,19 +5318,19 @@
         <v>331821</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>297177</v>
+        <v>298164</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>367480</v>
+        <v>372186</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07541234879778715</v>
+        <v>0.07541234879778713</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06753905884489203</v>
+        <v>0.06776322382788588</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08351671984573485</v>
+        <v>0.08458612285953025</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>31955</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21798</v>
+        <v>21012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48285</v>
+        <v>46723</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01433364068450509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009777399881900385</v>
+        <v>0.009425080742272126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02165866446738935</v>
+        <v>0.02095789441041188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -5368,19 +5368,19 @@
         <v>40929</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30760</v>
+        <v>30930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54700</v>
+        <v>54441</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01885531097387961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01417072152566905</v>
+        <v>0.01424875095506927</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02519943541121113</v>
+        <v>0.0250798662153238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -5389,19 +5389,19 @@
         <v>72884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57646</v>
+        <v>57774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92167</v>
+        <v>93317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01656432558013642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0131010490771655</v>
+        <v>0.01313013126854625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02094659913400208</v>
+        <v>0.02120801986723006</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>649094</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>629874</v>
+        <v>631674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>663837</v>
+        <v>663401</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9121783840775242</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8851684273197483</v>
+        <v>0.8876978717098912</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9328967776443682</v>
+        <v>0.9322837062338735</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>890</v>
@@ -5514,19 +5514,19 @@
         <v>651239</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>635117</v>
+        <v>635593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>666448</v>
+        <v>665830</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8884695015538187</v>
+        <v>0.8884695015538185</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8664742824473365</v>
+        <v>0.8671238537863255</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9092187571378558</v>
+        <v>0.9083747437075969</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1510</v>
@@ -5535,19 +5535,19 @@
         <v>1300334</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1275350</v>
+        <v>1277769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1322172</v>
+        <v>1324114</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9001483057057562</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8828539095889143</v>
+        <v>0.8845282138763344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.915266194377072</v>
+        <v>0.9166099908665871</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>49077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36117</v>
+        <v>37736</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65423</v>
+        <v>65476</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06896870535849857</v>
+        <v>0.06896870535849856</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05075501641427074</v>
+        <v>0.05303123048452397</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09193989121417069</v>
+        <v>0.09201405388192606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -5585,19 +5585,19 @@
         <v>61969</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48668</v>
+        <v>49218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76158</v>
+        <v>76196</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08454273126481726</v>
+        <v>0.08454273126481725</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06639721718986895</v>
+        <v>0.06714724025306976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1039001194951676</v>
+        <v>0.1039529832426627</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -5606,19 +5606,19 @@
         <v>111046</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90863</v>
+        <v>92574</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131856</v>
+        <v>131317</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07687109181765053</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06289956353679957</v>
+        <v>0.06408412362416679</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09127632880564658</v>
+        <v>0.09090345463849649</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>13415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7050</v>
+        <v>6979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26794</v>
+        <v>26716</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01885291056397722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00990722048177058</v>
+        <v>0.009807904527297141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03765418149444213</v>
+        <v>0.03754409908745923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -5656,19 +5656,19 @@
         <v>19782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12675</v>
+        <v>12762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28875</v>
+        <v>27819</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02698776718136424</v>
+        <v>0.02698776718136423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01729203828400377</v>
+        <v>0.01741109419584308</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0393938398741837</v>
+        <v>0.03795220917144367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -5677,19 +5677,19 @@
         <v>33197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23657</v>
+        <v>22839</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48788</v>
+        <v>45711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0229806024765931</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01637653680859205</v>
+        <v>0.01581004013689043</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03377325883172726</v>
+        <v>0.03164289724497341</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>3200770</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3159881</v>
+        <v>3162252</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3241109</v>
+        <v>3234023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.909720259242959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8980988718097523</v>
+        <v>0.898772824187595</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9211854559556292</v>
+        <v>0.9191715350936229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4817</v>
@@ -5802,19 +5802,19 @@
         <v>3335886</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3300668</v>
+        <v>3297711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3367828</v>
+        <v>3366599</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8956306539341867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8861753427979909</v>
+        <v>0.8853812980384026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9042065335991316</v>
+        <v>0.9038767655320428</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7885</v>
@@ -5823,19 +5823,19 @@
         <v>6536655</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6483508</v>
+        <v>6485066</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6586523</v>
+        <v>6586839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9024748893147756</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8951372105911596</v>
+        <v>0.8953523037820982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9093597679576049</v>
+        <v>0.9094033600724927</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>245889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>212260</v>
+        <v>214227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>283764</v>
+        <v>280264</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06988643558528185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06032830450580094</v>
+        <v>0.0608874318283012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08065105636672665</v>
+        <v>0.07965632404096094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>415</v>
@@ -5873,19 +5873,19 @@
         <v>304456</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>273459</v>
+        <v>276570</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>338255</v>
+        <v>339226</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08174149556897652</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07341919678224183</v>
+        <v>0.07425438420882322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09081605866490497</v>
+        <v>0.09107654109537233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>645</v>
@@ -5894,19 +5894,19 @@
         <v>550345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>508625</v>
+        <v>507564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>603587</v>
+        <v>597626</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.07598272382191484</v>
+        <v>0.07598272382191486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07022261352411573</v>
+        <v>0.07007622374673489</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08333352025516992</v>
+        <v>0.08251041855443816</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>71752</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54990</v>
+        <v>55115</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93099</v>
+        <v>91207</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02039330517175922</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01562928240883999</v>
+        <v>0.01566461091782228</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02646045383424701</v>
+        <v>0.02592281923440472</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>114</v>
@@ -5944,19 +5944,19 @@
         <v>84280</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68979</v>
+        <v>70102</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>101397</v>
+        <v>102419</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02262785049683685</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01851963258866957</v>
+        <v>0.01882126279064479</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02722355944812671</v>
+        <v>0.02749793257778251</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>178</v>
@@ -5965,19 +5965,19 @@
         <v>156032</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134294</v>
+        <v>133906</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>184970</v>
+        <v>182560</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02154238686330951</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01854107371399362</v>
+        <v>0.01848755058153032</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02553765725111169</v>
+        <v>0.02520492010650687</v>
       </c>
     </row>
     <row r="19">
